--- a/TimeTables/CSE_Sem_6.xlsx
+++ b/TimeTables/CSE_Sem_6.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prerna Tulsiani\COEP\Sem5\AI\Final_Project\AI-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\AI-Project\TimeTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10255709-DADF-4175-B73A-6FE3366BC47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9020DAA7-D832-4E03-8844-C98584E44A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+  <si>
+    <t>TIMETABLE GENERATOR</t>
+  </si>
   <si>
     <t>DAY / TIME</t>
   </si>
@@ -51,6 +49,21 @@
     <t>10:00 AM - 11:00 AM</t>
   </si>
   <si>
+    <t>DE - 1 LAB</t>
+  </si>
+  <si>
+    <t>SE - 2</t>
+  </si>
+  <si>
+    <t>DE - 1</t>
+  </si>
+  <si>
+    <t>DS LAB</t>
+  </si>
+  <si>
+    <t>OS LAB</t>
+  </si>
+  <si>
     <t>11:00 AM - 12:00 PM</t>
   </si>
   <si>
@@ -60,23 +73,29 @@
     <t>1:00 PM - 2:00 PM</t>
   </si>
   <si>
+    <t>DS</t>
+  </si>
+  <si>
     <t>2:00 PM - 3:00 PM</t>
   </si>
   <si>
+    <t>OS</t>
+  </si>
+  <si>
     <t>3:00 PM - 4:00 PM</t>
   </si>
   <si>
     <t>4:00 PM - 5:00 PM</t>
   </si>
   <si>
-    <t>TIMETABLE GENERATOR</t>
+    <t>Lunch Break</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +119,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -138,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -158,7 +184,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -174,7 +200,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -184,12 +210,125 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -197,12 +336,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -210,12 +376,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -223,9 +385,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -233,113 +393,99 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +770,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,271 +784,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C1:D2"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C1:D2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B15:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>